--- a/20190829 작업 필요 리스트업.xlsx
+++ b/20190829 작업 필요 리스트업.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="22632" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>현상 (as-is)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>level1.csv &gt;level2.csv 순차적으로 넘어가는 것 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,19 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="44.25" customWidth="1"/>
-    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" customWidth="1"/>
+    <col min="3" max="3" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,8 +484,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -486,8 +498,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -497,8 +510,9 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -508,16 +522,20 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -525,8 +543,9 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -534,8 +553,9 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -543,97 +563,111 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -647,7 +681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,7 +694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20190829 작업 필요 리스트업.xlsx
+++ b/20190829 작업 필요 리스트업.xlsx
@@ -107,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +164,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +473,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -513,16 +522,16 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/20190829 작업 필요 리스트업.xlsx
+++ b/20190829 작업 필요 리스트업.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>현상 (as-is)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,11 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 움직이지 않은 채 연속으로 죽으면 객체가
+사라지지 않고 파괴 이펙트만 뜨면서 제자리에서 여러 번 죽는 현상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,12 +481,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="44.19921875" customWidth="1"/>
+    <col min="2" max="2" width="60.19921875" customWidth="1"/>
     <col min="3" max="3" width="47.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" customWidth="1"/>
   </cols>
@@ -574,11 +582,13 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>

--- a/20190829 작업 필요 리스트업.xlsx
+++ b/20190829 작업 필요 리스트업.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>현상 (as-is)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   <si>
     <t>플레이어가 움직이지 않은 채 연속으로 죽으면 객체가
 사라지지 않고 파괴 이펙트만 뜨면서 제자리에서 여러 번 죽는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴 A가 플레이어와의 거리에 따라 속도가 달라지는 현상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +488,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -506,28 +513,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -544,43 +555,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -596,7 +616,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
@@ -640,7 +662,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -648,7 +670,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -656,7 +678,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -664,7 +686,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -672,7 +694,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -680,7 +702,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/20190829 작업 필요 리스트업.xlsx
+++ b/20190829 작업 필요 리스트업.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="22632" windowHeight="8076"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="22635" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>현상 (as-is)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>공격패턴 A가 플레이어와의 거리에 따라 속도가 달라지는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 모듈에서 \n 를 행바꿈으로 인식하지 않는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩 크레딧 씬 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,17 +496,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.19921875" customWidth="1"/>
-    <col min="3" max="3" width="47.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="60.25" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -526,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -540,7 +548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -554,7 +562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -566,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -578,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -590,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -602,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -612,7 +620,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -622,23 +630,27 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -646,7 +658,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -654,7 +666,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -662,7 +674,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -670,7 +682,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -678,7 +690,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -686,7 +698,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -694,7 +706,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -702,7 +714,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -722,7 +734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,7 +747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
